--- a/Calling_Trees/Calling Tree - Oct-25.xlsx
+++ b/Calling_Trees/Calling Tree - Oct-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xclusivetrading-my.sharepoint.com/personal/m_mahee_xclusivetradinginc_com/Documents/Desktop/Python/Calling Tree Dashboard/CallingTree_Dashboard/Calling_Trees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{FDC3ABA1-A593-48DD-B264-48D4A62A0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE2CB93-3190-4DE1-AC36-9BE3C59C6401}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{FDC3ABA1-A593-48DD-B264-48D4A62A0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02F7F682-6664-4637-9BDD-8637156164E7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$Z$290</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="1729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="1759">
   <si>
     <t>S.NO</t>
   </si>
@@ -4829,96 +4829,6 @@
     <t>NEVADA</t>
   </si>
   <si>
-    <t>1016 W SUNSET RD</t>
-  </si>
-  <si>
-    <t>1021 W OWENS AVE STE H</t>
-  </si>
-  <si>
-    <t>1216 S NELLIS BLVD</t>
-  </si>
-  <si>
-    <t>1249 E SAHARA AVE</t>
-  </si>
-  <si>
-    <t>1300 S LAMB BLVD STE A2</t>
-  </si>
-  <si>
-    <t>1443 N JONES BLVD</t>
-  </si>
-  <si>
-    <t>1570 W CHEYENNE AVE STE 110</t>
-  </si>
-  <si>
-    <t>1963 N DECATUR BLVD STE H3</t>
-  </si>
-  <si>
-    <t>2037 CIVIC CENTER DR</t>
-  </si>
-  <si>
-    <t>235 N EASTERN AVE STE 116</t>
-  </si>
-  <si>
-    <t>2381 E WINDMILL LN STE 5</t>
-  </si>
-  <si>
-    <t>2580 S DECATUR BLVD STE 4B</t>
-  </si>
-  <si>
-    <t>2670 N LAS VEGAS BLVD SUITE 115</t>
-  </si>
-  <si>
-    <t>3125 E TROPICANA AVE STE A</t>
-  </si>
-  <si>
-    <t>3131 N RANCHO DR</t>
-  </si>
-  <si>
-    <t>3131 W CRAIG RD STE 120</t>
-  </si>
-  <si>
-    <t>3310 S NELLIS BLVD STE 7</t>
-  </si>
-  <si>
-    <t>3411 E CHARLESTON BLVD STE 1</t>
-  </si>
-  <si>
-    <t>4001 S DECATUR BLVD STE 41</t>
-  </si>
-  <si>
-    <t>4011 S. BUFFALO DRIVE, SUITE B104</t>
-  </si>
-  <si>
-    <t>4576 E TROPICANA AVE</t>
-  </si>
-  <si>
-    <t>4770 W ANN RD STE 1</t>
-  </si>
-  <si>
-    <t>502 S BOULDER HWY</t>
-  </si>
-  <si>
-    <t>5130 S FORT APACHE RD STE 218</t>
-  </si>
-  <si>
-    <t>5516 BOULDER HWY STE 2E</t>
-  </si>
-  <si>
-    <t>6125 W TROPICANA AVE</t>
-  </si>
-  <si>
-    <t>6895 E LAKE MEAD BLVD</t>
-  </si>
-  <si>
-    <t>765 N NELLIS BLVD STE C3</t>
-  </si>
-  <si>
-    <t>8565 W SAHARA AVE STE 109</t>
-  </si>
-  <si>
-    <t>905 N PECOS RD</t>
-  </si>
-  <si>
     <t>XTHNV1016</t>
   </si>
   <si>
@@ -5138,9 +5048,6 @@
     <t>Charleston@xclusivetradinginc.com</t>
   </si>
   <si>
-    <t>516Boulder@xclusivetradinginc.com</t>
-  </si>
-  <si>
     <t>765Nellis@xclusivetradinginc.com</t>
   </si>
   <si>
@@ -5192,9 +5099,6 @@
     <t>CivicCenter@xclusivetradinginc.com</t>
   </si>
   <si>
-    <t>2580Decatur4B@xclusivetradinginc.com</t>
-  </si>
-  <si>
     <t>FortApache@xclusivetradinginc.com</t>
   </si>
   <si>
@@ -5226,6 +5130,192 @@
   </si>
   <si>
     <t>SAN DIEGO</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8278</t>
+  </si>
+  <si>
+    <t>+1 (702) 901-0338</t>
+  </si>
+  <si>
+    <t>+1 (702) 901-0948</t>
+  </si>
+  <si>
+    <t>+1 (702) 879-2182</t>
+  </si>
+  <si>
+    <t>+1 (702) 930-0521</t>
+  </si>
+  <si>
+    <t>+1 (702) 859-4131</t>
+  </si>
+  <si>
+    <t>+1 (702) 901-0328</t>
+  </si>
+  <si>
+    <t>+1 (702) 859-4560</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8632</t>
+  </si>
+  <si>
+    <t>+1 (702) 859-4456</t>
+  </si>
+  <si>
+    <t>+1 (702) 879-2180</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8843</t>
+  </si>
+  <si>
+    <t>+1 (702) 901-0337</t>
+  </si>
+  <si>
+    <t>+1 (702) 879-2185</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8272</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8847</t>
+  </si>
+  <si>
+    <t>+1 (702) 901-0667</t>
+  </si>
+  <si>
+    <t>+1 (702) 879-2004</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8273</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8634</t>
+  </si>
+  <si>
+    <t>+1 (702) 718-6434</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8274</t>
+  </si>
+  <si>
+    <t>+1 (702) 901-0329</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8277</t>
+  </si>
+  <si>
+    <t>+1 (702) 901-0339</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8633</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8630</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8848</t>
+  </si>
+  <si>
+    <t>+1 (702) 879-2181</t>
+  </si>
+  <si>
+    <t>+1 (702) 857-8631</t>
+  </si>
+  <si>
+    <t>1016 SUNSET</t>
+  </si>
+  <si>
+    <t>OWENS</t>
+  </si>
+  <si>
+    <t>1216 NELLIS TGT</t>
+  </si>
+  <si>
+    <t>1249 SAHARA</t>
+  </si>
+  <si>
+    <t>LAMB</t>
+  </si>
+  <si>
+    <t>JONES LV</t>
+  </si>
+  <si>
+    <t>CHEYENNE AVE</t>
+  </si>
+  <si>
+    <t>1963 DECATUR SNF</t>
+  </si>
+  <si>
+    <t>CIVIC CENTER</t>
+  </si>
+  <si>
+    <t>EASTERN AVE</t>
+  </si>
+  <si>
+    <t>WINDMILL LN</t>
+  </si>
+  <si>
+    <t>2580 DECATUR 4B</t>
+  </si>
+  <si>
+    <t>2670 LAS VEGAS</t>
+  </si>
+  <si>
+    <t>3125 TROPICANA WMT</t>
+  </si>
+  <si>
+    <t>RANCHO DR</t>
+  </si>
+  <si>
+    <t>CRAIG RD</t>
+  </si>
+  <si>
+    <t>3310 NELLIS</t>
+  </si>
+  <si>
+    <t>CHARLESTON</t>
+  </si>
+  <si>
+    <t>4001 DECATUR SMITH</t>
+  </si>
+  <si>
+    <t>BUFFALO DR</t>
+  </si>
+  <si>
+    <t>4576 TROPICANA</t>
+  </si>
+  <si>
+    <t>W ANN RD</t>
+  </si>
+  <si>
+    <t>502 BOULDER</t>
+  </si>
+  <si>
+    <t>FORT APACHE</t>
+  </si>
+  <si>
+    <t>5516 BOULDER</t>
+  </si>
+  <si>
+    <t>6125 TROPICANA OR</t>
+  </si>
+  <si>
+    <t>LAKE MEAD</t>
+  </si>
+  <si>
+    <t>765 NELLIS</t>
+  </si>
+  <si>
+    <t>8565 SAHARA</t>
+  </si>
+  <si>
+    <t>PECOS RD</t>
+  </si>
+  <si>
+    <t>2580Decat4B@xclusivetradinginc.com</t>
+  </si>
+  <si>
+    <t>5516Boulder@xclusivetradinginc.com</t>
   </si>
 </sst>
 </file>
@@ -5235,7 +5325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5274,14 +5364,6 @@
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5341,11 +5423,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5369,12 +5450,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -5841,7 +5918,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="6" customWidth="1"/>
@@ -9312,10 +9389,10 @@
         <v>720</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1695</v>
+        <v>1665</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>1696</v>
+        <v>1666</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>27</v>
@@ -9342,7 +9419,7 @@
         <v>7015842</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>1728</v>
+        <v>1696</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>896</v>
@@ -9362,7 +9439,7 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4" t="s">
-        <v>1687</v>
+        <v>1657</v>
       </c>
       <c r="W48" s="5">
         <v>45930</v>
@@ -9382,10 +9459,10 @@
         <v>720</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1695</v>
+        <v>1665</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>1696</v>
+        <v>1666</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>27</v>
@@ -9412,7 +9489,7 @@
         <v>5778386</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>1728</v>
+        <v>1696</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>896</v>
@@ -9432,7 +9509,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4" t="s">
-        <v>1688</v>
+        <v>1658</v>
       </c>
       <c r="W49" s="5">
         <v>45930</v>
@@ -9452,10 +9529,10 @@
         <v>720</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1695</v>
+        <v>1665</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>1696</v>
+        <v>1666</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>27</v>
@@ -9482,7 +9559,7 @@
         <v>9812350</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>1728</v>
+        <v>1696</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>896</v>
@@ -9502,7 +9579,7 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4" t="s">
-        <v>1689</v>
+        <v>1659</v>
       </c>
       <c r="W50" s="5">
         <v>45930</v>
@@ -9522,10 +9599,10 @@
         <v>720</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1695</v>
+        <v>1665</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>1696</v>
+        <v>1666</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>27</v>
@@ -9552,7 +9629,7 @@
         <v>4146119</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>1728</v>
+        <v>1696</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>896</v>
@@ -9572,7 +9649,7 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4" t="s">
-        <v>1690</v>
+        <v>1660</v>
       </c>
       <c r="W51" s="5">
         <v>45930</v>
@@ -9592,10 +9669,10 @@
         <v>720</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1695</v>
+        <v>1665</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>1696</v>
+        <v>1666</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>27</v>
@@ -9622,7 +9699,7 @@
         <v>5971210</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>1728</v>
+        <v>1696</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>896</v>
@@ -9642,7 +9719,7 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4" t="s">
-        <v>1691</v>
+        <v>1661</v>
       </c>
       <c r="W52" s="5">
         <v>45930</v>
@@ -9662,10 +9739,10 @@
         <v>720</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1695</v>
+        <v>1665</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>1696</v>
+        <v>1666</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>27</v>
@@ -9692,7 +9769,7 @@
         <v>1606737</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>1728</v>
+        <v>1696</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>896</v>
@@ -9712,7 +9789,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4" t="s">
-        <v>1692</v>
+        <v>1662</v>
       </c>
       <c r="W53" s="5">
         <v>45930</v>
@@ -9732,10 +9809,10 @@
         <v>720</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1695</v>
+        <v>1665</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>1696</v>
+        <v>1666</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>27</v>
@@ -9762,7 +9839,7 @@
         <v>4655609</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>1728</v>
+        <v>1696</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>896</v>
@@ -9782,7 +9859,7 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4" t="s">
-        <v>1693</v>
+        <v>1663</v>
       </c>
       <c r="W54" s="5">
         <v>45930</v>
@@ -16989,10 +17066,10 @@
         <v>1518</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>1626</v>
+        <v>1596</v>
       </c>
       <c r="K154" s="4">
         <v>10195994</v>
@@ -17008,25 +17085,31 @@
         <v>1595</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>1596</v>
+        <v>1727</v>
       </c>
       <c r="Q154" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R154" s="4"/>
+      <c r="R154" s="4">
+        <v>82038957</v>
+      </c>
       <c r="S154" s="4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="T154" s="4"/>
-      <c r="U154" s="4"/>
+        <v>1627</v>
+      </c>
+      <c r="T154" s="4">
+        <v>694</v>
+      </c>
+      <c r="U154" s="4" t="s">
+        <v>1697</v>
+      </c>
       <c r="V154" s="4" t="s">
-        <v>1702</v>
+        <v>1671</v>
       </c>
       <c r="W154" s="5">
         <v>45933</v>
       </c>
       <c r="X154" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="155" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17055,10 +17138,10 @@
         <v>1518</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>1627</v>
+        <v>1597</v>
       </c>
       <c r="K155" s="4">
         <v>10206874</v>
@@ -17074,25 +17157,31 @@
         <v>1595</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>1597</v>
+        <v>1728</v>
       </c>
       <c r="Q155" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R155" s="4"/>
+      <c r="R155" s="4">
+        <v>82038960</v>
+      </c>
       <c r="S155" s="4" t="s">
-        <v>1658</v>
-      </c>
-      <c r="T155" s="4"/>
-      <c r="U155" s="4"/>
+        <v>1628</v>
+      </c>
+      <c r="T155" s="4">
+        <v>693</v>
+      </c>
+      <c r="U155" s="4" t="s">
+        <v>1720</v>
+      </c>
       <c r="V155" s="4" t="s">
-        <v>1701</v>
+        <v>1670</v>
       </c>
       <c r="W155" s="5">
         <v>45933</v>
       </c>
       <c r="X155" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="156" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17121,10 +17210,10 @@
         <v>1518</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>1628</v>
+        <v>1598</v>
       </c>
       <c r="K156" s="4">
         <v>10278960</v>
@@ -17140,25 +17229,31 @@
         <v>1595</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>1598</v>
+        <v>1729</v>
       </c>
       <c r="Q156" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R156" s="4"/>
+      <c r="R156" s="4">
+        <v>82038933</v>
+      </c>
       <c r="S156" s="4" t="s">
-        <v>1659</v>
-      </c>
-      <c r="T156" s="4"/>
-      <c r="U156" s="4"/>
+        <v>1629</v>
+      </c>
+      <c r="T156" s="4">
+        <v>705</v>
+      </c>
+      <c r="U156" s="4" t="s">
+        <v>1698</v>
+      </c>
       <c r="V156" s="4" t="s">
-        <v>1708</v>
+        <v>1677</v>
       </c>
       <c r="W156" s="5">
         <v>45933</v>
       </c>
       <c r="X156" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="157" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17187,10 +17282,10 @@
         <v>1518</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>1629</v>
+        <v>1599</v>
       </c>
       <c r="K157" s="4">
         <v>10193805</v>
@@ -17206,25 +17301,31 @@
         <v>1595</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>1599</v>
+        <v>1730</v>
       </c>
       <c r="Q157" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R157" s="4"/>
+      <c r="R157" s="4">
+        <v>82038936</v>
+      </c>
       <c r="S157" s="4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="T157" s="4"/>
-      <c r="U157" s="4"/>
+        <v>1630</v>
+      </c>
+      <c r="T157" s="4">
+        <v>703</v>
+      </c>
+      <c r="U157" s="4" t="s">
+        <v>1699</v>
+      </c>
       <c r="V157" s="4" t="s">
-        <v>1711</v>
+        <v>1680</v>
       </c>
       <c r="W157" s="5">
         <v>45933</v>
       </c>
       <c r="X157" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="158" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17253,10 +17354,10 @@
         <v>1518</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>1630</v>
+        <v>1600</v>
       </c>
       <c r="K158" s="4">
         <v>10221497</v>
@@ -17272,25 +17373,31 @@
         <v>1595</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>1600</v>
+        <v>1731</v>
       </c>
       <c r="Q158" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R158" s="4"/>
+      <c r="R158" s="4">
+        <v>82038926</v>
+      </c>
       <c r="S158" s="4" t="s">
-        <v>1661</v>
-      </c>
-      <c r="T158" s="4"/>
-      <c r="U158" s="4"/>
+        <v>1631</v>
+      </c>
+      <c r="T158" s="4">
+        <v>695</v>
+      </c>
+      <c r="U158" s="4" t="s">
+        <v>1700</v>
+      </c>
       <c r="V158" s="4" t="s">
-        <v>1703</v>
+        <v>1672</v>
       </c>
       <c r="W158" s="5">
         <v>45933</v>
       </c>
       <c r="X158" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="159" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17319,10 +17426,10 @@
         <v>1518</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>1631</v>
+        <v>1601</v>
       </c>
       <c r="K159" s="4">
         <v>10209391</v>
@@ -17338,25 +17445,31 @@
         <v>1595</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>1601</v>
+        <v>1732</v>
       </c>
       <c r="Q159" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R159" s="4"/>
+      <c r="R159" s="4">
+        <v>82038937</v>
+      </c>
       <c r="S159" s="4" t="s">
-        <v>1662</v>
-      </c>
-      <c r="T159" s="4"/>
-      <c r="U159" s="4"/>
+        <v>1632</v>
+      </c>
+      <c r="T159" s="4">
+        <v>704</v>
+      </c>
+      <c r="U159" s="4" t="s">
+        <v>1701</v>
+      </c>
       <c r="V159" s="4" t="s">
-        <v>1712</v>
+        <v>1681</v>
       </c>
       <c r="W159" s="5">
         <v>45933</v>
       </c>
       <c r="X159" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="160" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17385,10 +17498,10 @@
         <v>1518</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>1632</v>
+        <v>1602</v>
       </c>
       <c r="K160" s="4">
         <v>10225505</v>
@@ -17404,25 +17517,31 @@
         <v>1595</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>1602</v>
+        <v>1733</v>
       </c>
       <c r="Q160" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R160" s="4"/>
+      <c r="R160" s="4">
+        <v>82038953</v>
+      </c>
       <c r="S160" s="4" t="s">
-        <v>1663</v>
-      </c>
-      <c r="T160" s="4"/>
-      <c r="U160" s="4"/>
+        <v>1633</v>
+      </c>
+      <c r="T160" s="4">
+        <v>720</v>
+      </c>
+      <c r="U160" s="4" t="s">
+        <v>1702</v>
+      </c>
       <c r="V160" s="4" t="s">
-        <v>1727</v>
+        <v>1695</v>
       </c>
       <c r="W160" s="5">
         <v>45933</v>
       </c>
       <c r="X160" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="161" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17451,10 +17570,10 @@
         <v>1518</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>1633</v>
+        <v>1603</v>
       </c>
       <c r="K161" s="4">
         <v>10224937</v>
@@ -17470,25 +17589,31 @@
         <v>1595</v>
       </c>
       <c r="P161" s="4" t="s">
-        <v>1603</v>
+        <v>1734</v>
       </c>
       <c r="Q161" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R161" s="4"/>
+      <c r="R161" s="4">
+        <v>82038939</v>
+      </c>
       <c r="S161" s="4" t="s">
-        <v>1664</v>
-      </c>
-      <c r="T161" s="4"/>
-      <c r="U161" s="4"/>
+        <v>1634</v>
+      </c>
+      <c r="T161" s="4">
+        <v>697</v>
+      </c>
+      <c r="U161" s="4" t="s">
+        <v>1703</v>
+      </c>
       <c r="V161" s="4" t="s">
-        <v>1705</v>
+        <v>1674</v>
       </c>
       <c r="W161" s="5">
         <v>45933</v>
       </c>
       <c r="X161" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="162" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17517,10 +17642,10 @@
         <v>1518</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>1634</v>
+        <v>1604</v>
       </c>
       <c r="K162" s="4">
         <v>10227514</v>
@@ -17536,25 +17661,31 @@
         <v>1595</v>
       </c>
       <c r="P162" s="4" t="s">
-        <v>1604</v>
+        <v>1735</v>
       </c>
       <c r="Q162" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R162" s="4"/>
+      <c r="R162" s="4">
+        <v>82038945</v>
+      </c>
       <c r="S162" s="4" t="s">
-        <v>1665</v>
-      </c>
-      <c r="T162" s="4"/>
-      <c r="U162" s="4"/>
+        <v>1635</v>
+      </c>
+      <c r="T162" s="4">
+        <v>709</v>
+      </c>
+      <c r="U162" s="4" t="s">
+        <v>1704</v>
+      </c>
       <c r="V162" s="4" t="s">
-        <v>1716</v>
+        <v>1685</v>
       </c>
       <c r="W162" s="5">
         <v>45933</v>
       </c>
       <c r="X162" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="163" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17583,10 +17714,10 @@
         <v>1518</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>1635</v>
+        <v>1605</v>
       </c>
       <c r="K163" s="4">
         <v>10229347</v>
@@ -17602,25 +17733,31 @@
         <v>1595</v>
       </c>
       <c r="P163" s="4" t="s">
-        <v>1605</v>
+        <v>1736</v>
       </c>
       <c r="Q163" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R163" s="4"/>
+      <c r="R163" s="4">
+        <v>82038956</v>
+      </c>
       <c r="S163" s="4" t="s">
-        <v>1666</v>
-      </c>
-      <c r="T163" s="4"/>
-      <c r="U163" s="4"/>
+        <v>1636</v>
+      </c>
+      <c r="T163" s="4">
+        <v>714</v>
+      </c>
+      <c r="U163" s="4" t="s">
+        <v>1705</v>
+      </c>
       <c r="V163" s="4" t="s">
-        <v>1721</v>
+        <v>1689</v>
       </c>
       <c r="W163" s="5">
         <v>45933</v>
       </c>
       <c r="X163" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="164" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17649,10 +17786,10 @@
         <v>1518</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>1636</v>
+        <v>1606</v>
       </c>
       <c r="K164" s="4">
         <v>10198374</v>
@@ -17668,25 +17805,31 @@
         <v>1595</v>
       </c>
       <c r="P164" s="4" t="s">
-        <v>1606</v>
+        <v>1737</v>
       </c>
       <c r="Q164" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R164" s="4"/>
+      <c r="R164" s="4">
+        <v>82038943</v>
+      </c>
       <c r="S164" s="4" t="s">
-        <v>1667</v>
-      </c>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
+        <v>1637</v>
+      </c>
+      <c r="T164" s="4">
+        <v>707</v>
+      </c>
+      <c r="U164" s="4" t="s">
+        <v>1706</v>
+      </c>
       <c r="V164" s="4" t="s">
-        <v>1714</v>
+        <v>1683</v>
       </c>
       <c r="W164" s="5">
         <v>45933</v>
       </c>
       <c r="X164" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="165" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17715,10 +17858,10 @@
         <v>1518</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>1637</v>
+        <v>1607</v>
       </c>
       <c r="K165" s="4">
         <v>10211730</v>
@@ -17734,25 +17877,31 @@
         <v>1595</v>
       </c>
       <c r="P165" s="4" t="s">
-        <v>1607</v>
+        <v>1738</v>
       </c>
       <c r="Q165" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R165" s="4"/>
+      <c r="R165" s="4">
+        <v>82038946</v>
+      </c>
       <c r="S165" s="4" t="s">
-        <v>1668</v>
-      </c>
-      <c r="T165" s="4"/>
-      <c r="U165" s="4"/>
+        <v>1638</v>
+      </c>
+      <c r="T165" s="4">
+        <v>710</v>
+      </c>
+      <c r="U165" s="4" t="s">
+        <v>1707</v>
+      </c>
       <c r="V165" s="4" t="s">
-        <v>1717</v>
+        <v>1757</v>
       </c>
       <c r="W165" s="5">
         <v>45933</v>
       </c>
       <c r="X165" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="166" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17781,10 +17930,10 @@
         <v>1518</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>1638</v>
+        <v>1608</v>
       </c>
       <c r="K166" s="4">
         <v>10217531</v>
@@ -17800,25 +17949,31 @@
         <v>1595</v>
       </c>
       <c r="P166" s="4" t="s">
-        <v>1608</v>
+        <v>1739</v>
       </c>
       <c r="Q166" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R166" s="4"/>
+      <c r="R166" s="4">
+        <v>82038934</v>
+      </c>
       <c r="S166" s="4" t="s">
-        <v>1669</v>
-      </c>
-      <c r="T166" s="4"/>
-      <c r="U166" s="4"/>
+        <v>1639</v>
+      </c>
+      <c r="T166" s="4">
+        <v>701</v>
+      </c>
+      <c r="U166" s="4" t="s">
+        <v>1721</v>
+      </c>
       <c r="V166" s="4" t="s">
-        <v>1709</v>
+        <v>1678</v>
       </c>
       <c r="W166" s="5">
         <v>45933</v>
       </c>
       <c r="X166" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="167" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17847,10 +18002,10 @@
         <v>1518</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>1639</v>
+        <v>1609</v>
       </c>
       <c r="K167" s="4">
         <v>10229112</v>
@@ -17866,25 +18021,31 @@
         <v>1595</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>1609</v>
+        <v>1740</v>
       </c>
       <c r="Q167" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R167" s="4"/>
+      <c r="R167" s="4">
+        <v>82038955</v>
+      </c>
       <c r="S167" s="4" t="s">
-        <v>1670</v>
-      </c>
-      <c r="T167" s="4"/>
-      <c r="U167" s="4"/>
+        <v>1640</v>
+      </c>
+      <c r="T167" s="4">
+        <v>715</v>
+      </c>
+      <c r="U167" s="4" t="s">
+        <v>1722</v>
+      </c>
       <c r="V167" s="4" t="s">
-        <v>1722</v>
+        <v>1690</v>
       </c>
       <c r="W167" s="5">
         <v>45933</v>
       </c>
       <c r="X167" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="168" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17913,10 +18074,10 @@
         <v>1518</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>1640</v>
+        <v>1610</v>
       </c>
       <c r="K168" s="4">
         <v>10223707</v>
@@ -17932,25 +18093,31 @@
         <v>1595</v>
       </c>
       <c r="P168" s="4" t="s">
-        <v>1610</v>
+        <v>1741</v>
       </c>
       <c r="Q168" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R168" s="4"/>
+      <c r="R168" s="4">
+        <v>82038952</v>
+      </c>
       <c r="S168" s="4" t="s">
-        <v>1671</v>
-      </c>
-      <c r="T168" s="4"/>
-      <c r="U168" s="4"/>
+        <v>1641</v>
+      </c>
+      <c r="T168" s="4">
+        <v>717</v>
+      </c>
+      <c r="U168" s="4" t="s">
+        <v>1708</v>
+      </c>
       <c r="V168" s="4" t="s">
-        <v>1724</v>
+        <v>1692</v>
       </c>
       <c r="W168" s="5">
         <v>45933</v>
       </c>
       <c r="X168" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="169" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17979,10 +18146,10 @@
         <v>1518</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>1641</v>
+        <v>1611</v>
       </c>
       <c r="K169" s="4">
         <v>10211182</v>
@@ -17998,25 +18165,31 @@
         <v>1595</v>
       </c>
       <c r="P169" s="4" t="s">
-        <v>1611</v>
+        <v>1742</v>
       </c>
       <c r="Q169" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R169" s="4"/>
+      <c r="R169" s="4">
+        <v>82038941</v>
+      </c>
       <c r="S169" s="4" t="s">
-        <v>1672</v>
-      </c>
-      <c r="T169" s="4"/>
-      <c r="U169" s="4"/>
+        <v>1642</v>
+      </c>
+      <c r="T169" s="4">
+        <v>699</v>
+      </c>
+      <c r="U169" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="V169" s="4" t="s">
-        <v>1707</v>
+        <v>1676</v>
       </c>
       <c r="W169" s="5">
         <v>45933</v>
       </c>
       <c r="X169" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="170" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18045,10 +18218,10 @@
         <v>1518</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>1642</v>
+        <v>1612</v>
       </c>
       <c r="K170" s="4">
         <v>10225491</v>
@@ -18064,25 +18237,31 @@
         <v>1595</v>
       </c>
       <c r="P170" s="4" t="s">
-        <v>1612</v>
+        <v>1743</v>
       </c>
       <c r="Q170" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R170" s="4"/>
+      <c r="R170" s="4">
+        <v>82038938</v>
+      </c>
       <c r="S170" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="T170" s="4">
+        <v>696</v>
+      </c>
+      <c r="U170" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="V170" s="4" t="s">
         <v>1673</v>
-      </c>
-      <c r="T170" s="4"/>
-      <c r="U170" s="4"/>
-      <c r="V170" s="4" t="s">
-        <v>1704</v>
       </c>
       <c r="W170" s="5">
         <v>45933</v>
       </c>
       <c r="X170" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="171" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18111,10 +18290,10 @@
         <v>1518</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>1643</v>
+        <v>1613</v>
       </c>
       <c r="K171" s="4">
         <v>10223706</v>
@@ -18130,25 +18309,31 @@
         <v>1595</v>
       </c>
       <c r="P171" s="4" t="s">
-        <v>1613</v>
+        <v>1744</v>
       </c>
       <c r="Q171" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R171" s="4"/>
+      <c r="R171" s="4">
+        <v>82038951</v>
+      </c>
       <c r="S171" s="4" t="s">
-        <v>1674</v>
-      </c>
-      <c r="T171" s="4"/>
-      <c r="U171" s="4"/>
+        <v>1644</v>
+      </c>
+      <c r="T171" s="4">
+        <v>690</v>
+      </c>
+      <c r="U171" s="4" t="s">
+        <v>1711</v>
+      </c>
       <c r="V171" s="4" t="s">
-        <v>1698</v>
+        <v>1668</v>
       </c>
       <c r="W171" s="5">
         <v>45933</v>
       </c>
       <c r="X171" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="172" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18177,10 +18362,10 @@
         <v>1518</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>1644</v>
+        <v>1614</v>
       </c>
       <c r="K172" s="4">
         <v>10220615</v>
@@ -18196,25 +18381,31 @@
         <v>1595</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>1614</v>
+        <v>1745</v>
       </c>
       <c r="Q172" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R172" s="4"/>
+      <c r="R172" s="4">
+        <v>82038963</v>
+      </c>
       <c r="S172" s="4" t="s">
-        <v>1675</v>
-      </c>
-      <c r="T172" s="4"/>
-      <c r="U172" s="4"/>
+        <v>1645</v>
+      </c>
+      <c r="T172" s="4">
+        <v>712</v>
+      </c>
+      <c r="U172" s="4" t="s">
+        <v>1723</v>
+      </c>
       <c r="V172" s="4" t="s">
-        <v>1719</v>
+        <v>1687</v>
       </c>
       <c r="W172" s="5">
         <v>45933</v>
       </c>
       <c r="X172" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="173" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18243,10 +18434,10 @@
         <v>1518</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>1645</v>
+        <v>1615</v>
       </c>
       <c r="K173" s="4">
         <v>10220616</v>
@@ -18262,25 +18453,31 @@
         <v>1595</v>
       </c>
       <c r="P173" s="4" t="s">
-        <v>1615</v>
+        <v>1746</v>
       </c>
       <c r="Q173" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R173" s="4"/>
+      <c r="R173" s="4">
+        <v>82038949</v>
+      </c>
       <c r="S173" s="4" t="s">
-        <v>1676</v>
-      </c>
-      <c r="T173" s="4"/>
-      <c r="U173" s="4"/>
+        <v>1646</v>
+      </c>
+      <c r="T173" s="4">
+        <v>719</v>
+      </c>
+      <c r="U173" s="4" t="s">
+        <v>1724</v>
+      </c>
       <c r="V173" s="4" t="s">
-        <v>1726</v>
+        <v>1694</v>
       </c>
       <c r="W173" s="5">
         <v>45933</v>
       </c>
       <c r="X173" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="174" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18309,10 +18506,10 @@
         <v>1518</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>1646</v>
+        <v>1616</v>
       </c>
       <c r="K174" s="4">
         <v>10206869</v>
@@ -18328,25 +18525,31 @@
         <v>1595</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>1616</v>
+        <v>1747</v>
       </c>
       <c r="Q174" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R174" s="4"/>
+      <c r="R174" s="4">
+        <v>82038958</v>
+      </c>
       <c r="S174" s="4" t="s">
-        <v>1677</v>
-      </c>
-      <c r="T174" s="4"/>
-      <c r="U174" s="4"/>
+        <v>1647</v>
+      </c>
+      <c r="T174" s="4">
+        <v>718</v>
+      </c>
+      <c r="U174" s="4" t="s">
+        <v>1712</v>
+      </c>
       <c r="V174" s="4" t="s">
-        <v>1725</v>
+        <v>1693</v>
       </c>
       <c r="W174" s="5" t="s">
         <v>1566</v>
       </c>
       <c r="X174" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="175" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18375,10 +18578,10 @@
         <v>1518</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>1647</v>
+        <v>1617</v>
       </c>
       <c r="K175" s="4">
         <v>10222342</v>
@@ -18394,25 +18597,31 @@
         <v>1595</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>1617</v>
+        <v>1748</v>
       </c>
       <c r="Q175" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R175" s="4"/>
+      <c r="R175" s="4">
+        <v>82038944</v>
+      </c>
       <c r="S175" s="4" t="s">
-        <v>1678</v>
-      </c>
-      <c r="T175" s="4"/>
-      <c r="U175" s="4"/>
+        <v>1648</v>
+      </c>
+      <c r="T175" s="4">
+        <v>708</v>
+      </c>
+      <c r="U175" s="4" t="s">
+        <v>1725</v>
+      </c>
       <c r="V175" s="4" t="s">
-        <v>1715</v>
+        <v>1684</v>
       </c>
       <c r="W175" s="5">
         <v>45933</v>
       </c>
       <c r="X175" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="176" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18441,10 +18650,10 @@
         <v>1518</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>1648</v>
+        <v>1618</v>
       </c>
       <c r="K176" s="4">
         <v>10193809</v>
@@ -18460,25 +18669,31 @@
         <v>1595</v>
       </c>
       <c r="P176" s="4" t="s">
-        <v>1618</v>
+        <v>1749</v>
       </c>
       <c r="Q176" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R176" s="4"/>
+      <c r="R176" s="4">
+        <v>82038935</v>
+      </c>
       <c r="S176" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="T176" s="4">
+        <v>702</v>
+      </c>
+      <c r="U176" s="4" t="s">
+        <v>1713</v>
+      </c>
+      <c r="V176" s="4" t="s">
         <v>1679</v>
-      </c>
-      <c r="T176" s="4"/>
-      <c r="U176" s="4"/>
-      <c r="V176" s="4" t="s">
-        <v>1710</v>
       </c>
       <c r="W176" s="5">
         <v>45933</v>
       </c>
       <c r="X176" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="177" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18507,10 +18722,10 @@
         <v>1518</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>1649</v>
+        <v>1619</v>
       </c>
       <c r="K177" s="4">
         <v>10226699</v>
@@ -18526,25 +18741,31 @@
         <v>1595</v>
       </c>
       <c r="P177" s="4" t="s">
-        <v>1619</v>
+        <v>1750</v>
       </c>
       <c r="Q177" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R177" s="4"/>
+      <c r="R177" s="4">
+        <v>82038954</v>
+      </c>
       <c r="S177" s="4" t="s">
-        <v>1680</v>
-      </c>
-      <c r="T177" s="4"/>
-      <c r="U177" s="4"/>
+        <v>1650</v>
+      </c>
+      <c r="T177" s="4">
+        <v>711</v>
+      </c>
+      <c r="U177" s="4" t="s">
+        <v>1714</v>
+      </c>
       <c r="V177" s="4" t="s">
-        <v>1718</v>
+        <v>1686</v>
       </c>
       <c r="W177" s="5">
         <v>45933</v>
       </c>
       <c r="X177" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="178" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18573,10 +18794,10 @@
         <v>1518</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>1650</v>
+        <v>1620</v>
       </c>
       <c r="K178" s="4">
         <v>10231326</v>
@@ -18592,25 +18813,31 @@
         <v>1595</v>
       </c>
       <c r="P178" s="4" t="s">
-        <v>1620</v>
+        <v>1751</v>
       </c>
       <c r="Q178" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R178" s="4"/>
+      <c r="R178" s="4">
+        <v>82038947</v>
+      </c>
       <c r="S178" s="4" t="s">
-        <v>1681</v>
-      </c>
-      <c r="T178" s="4"/>
-      <c r="U178" s="4"/>
+        <v>1651</v>
+      </c>
+      <c r="T178" s="4">
+        <v>691</v>
+      </c>
+      <c r="U178" s="4" t="s">
+        <v>1715</v>
+      </c>
       <c r="V178" s="4" t="s">
-        <v>1699</v>
+        <v>1758</v>
       </c>
       <c r="W178" s="5">
         <v>45933</v>
       </c>
       <c r="X178" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="179" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18639,10 +18866,10 @@
         <v>1518</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>1651</v>
+        <v>1621</v>
       </c>
       <c r="K179" s="4">
         <v>10223154</v>
@@ -18658,25 +18885,31 @@
         <v>1595</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>1621</v>
+        <v>1752</v>
       </c>
       <c r="Q179" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R179" s="4"/>
+      <c r="R179" s="4">
+        <v>82038948</v>
+      </c>
       <c r="S179" s="4" t="s">
-        <v>1682</v>
-      </c>
-      <c r="T179" s="4"/>
-      <c r="U179" s="4"/>
+        <v>1652</v>
+      </c>
+      <c r="T179" s="4">
+        <v>716</v>
+      </c>
+      <c r="U179" s="4" t="s">
+        <v>1716</v>
+      </c>
       <c r="V179" s="4" t="s">
-        <v>1723</v>
+        <v>1691</v>
       </c>
       <c r="W179" s="5">
         <v>45933</v>
       </c>
       <c r="X179" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="180" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18705,10 +18938,10 @@
         <v>1518</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>1652</v>
+        <v>1622</v>
       </c>
       <c r="K180" s="4">
         <v>10204256</v>
@@ -18724,25 +18957,31 @@
         <v>1595</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="Q180" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R180" s="4"/>
+      <c r="R180" s="4">
+        <v>82038942</v>
+      </c>
       <c r="S180" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="T180" s="4"/>
-      <c r="U180" s="4"/>
+        <v>1653</v>
+      </c>
+      <c r="T180" s="4">
+        <v>706</v>
+      </c>
+      <c r="U180" s="4" t="s">
+        <v>1717</v>
+      </c>
       <c r="V180" s="4" t="s">
-        <v>1713</v>
+        <v>1682</v>
       </c>
       <c r="W180" s="5">
         <v>45933</v>
       </c>
       <c r="X180" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="181" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18771,10 +19010,10 @@
         <v>1518</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>1653</v>
+        <v>1623</v>
       </c>
       <c r="K181" s="4">
         <v>10206871</v>
@@ -18790,25 +19029,31 @@
         <v>1595</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>1623</v>
+        <v>1754</v>
       </c>
       <c r="Q181" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R181" s="4"/>
+      <c r="R181" s="4">
+        <v>82038959</v>
+      </c>
       <c r="S181" s="4" t="s">
-        <v>1684</v>
-      </c>
-      <c r="T181" s="4"/>
-      <c r="U181" s="4"/>
+        <v>1654</v>
+      </c>
+      <c r="T181" s="4">
+        <v>692</v>
+      </c>
+      <c r="U181" s="4" t="s">
+        <v>1718</v>
+      </c>
       <c r="V181" s="4" t="s">
-        <v>1700</v>
+        <v>1669</v>
       </c>
       <c r="W181" s="5">
         <v>45933</v>
       </c>
       <c r="X181" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="182" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18837,10 +19082,10 @@
         <v>1518</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>1654</v>
+        <v>1624</v>
       </c>
       <c r="K182" s="4">
         <v>10220617</v>
@@ -18856,25 +19101,31 @@
         <v>1595</v>
       </c>
       <c r="P182" s="4" t="s">
-        <v>1624</v>
+        <v>1755</v>
       </c>
       <c r="Q182" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R182" s="4"/>
+      <c r="R182" s="4">
+        <v>82038950</v>
+      </c>
       <c r="S182" s="4" t="s">
-        <v>1685</v>
-      </c>
-      <c r="T182" s="4"/>
-      <c r="U182" s="4"/>
+        <v>1655</v>
+      </c>
+      <c r="T182" s="4">
+        <v>713</v>
+      </c>
+      <c r="U182" s="4" t="s">
+        <v>1726</v>
+      </c>
       <c r="V182" s="4" t="s">
-        <v>1720</v>
+        <v>1688</v>
       </c>
       <c r="W182" s="5">
         <v>45933</v>
       </c>
       <c r="X182" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="183" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -18903,10 +19154,10 @@
         <v>1518</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>1655</v>
+        <v>1625</v>
       </c>
       <c r="K183" s="4">
         <v>10189049</v>
@@ -18922,25 +19173,31 @@
         <v>1595</v>
       </c>
       <c r="P183" s="4" t="s">
-        <v>1625</v>
+        <v>1756</v>
       </c>
       <c r="Q183" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="R183" s="4"/>
+      <c r="R183" s="4">
+        <v>82038940</v>
+      </c>
       <c r="S183" s="4" t="s">
-        <v>1686</v>
-      </c>
-      <c r="T183" s="4"/>
-      <c r="U183" s="4"/>
+        <v>1656</v>
+      </c>
+      <c r="T183" s="4">
+        <v>698</v>
+      </c>
+      <c r="U183" s="4" t="s">
+        <v>1719</v>
+      </c>
       <c r="V183" s="4" t="s">
-        <v>1706</v>
+        <v>1675</v>
       </c>
       <c r="W183" s="5">
         <v>45933</v>
       </c>
       <c r="X183" s="8" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -22206,7 +22463,7 @@
         <v>7608529</v>
       </c>
       <c r="N228" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O228" s="4" t="s">
         <v>678</v>
@@ -22280,7 +22537,7 @@
         <v>7002848</v>
       </c>
       <c r="N229" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O229" s="4" t="s">
         <v>678</v>
@@ -22354,7 +22611,7 @@
         <v>4425020</v>
       </c>
       <c r="N230" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O230" s="4" t="s">
         <v>678</v>
@@ -22428,7 +22685,7 @@
         <v>1943549</v>
       </c>
       <c r="N231" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O231" s="4" t="s">
         <v>678</v>
@@ -22502,7 +22759,7 @@
         <v>8940151</v>
       </c>
       <c r="N232" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O232" s="4" t="s">
         <v>678</v>
@@ -22576,7 +22833,7 @@
         <v>1826134</v>
       </c>
       <c r="N233" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O233" s="4" t="s">
         <v>678</v>
@@ -22650,7 +22907,7 @@
         <v>6945803</v>
       </c>
       <c r="N234" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O234" s="4" t="s">
         <v>678</v>
@@ -22724,7 +22981,7 @@
         <v>414724</v>
       </c>
       <c r="N235" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O235" s="4" t="s">
         <v>678</v>
@@ -22798,7 +23055,7 @@
         <v>451353</v>
       </c>
       <c r="N236" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O236" s="4" t="s">
         <v>678</v>
@@ -22872,7 +23129,7 @@
         <v>2357845</v>
       </c>
       <c r="N237" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O237" s="4" t="s">
         <v>678</v>
@@ -22946,7 +23203,7 @@
         <v>1600153</v>
       </c>
       <c r="N238" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O238" s="4" t="s">
         <v>678</v>
@@ -23020,7 +23277,7 @@
         <v>2304480</v>
       </c>
       <c r="N239" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O239" s="4" t="s">
         <v>678</v>
@@ -23094,7 +23351,7 @@
         <v>116489</v>
       </c>
       <c r="N240" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O240" s="4" t="s">
         <v>678</v>
@@ -23168,7 +23425,7 @@
         <v>2424596</v>
       </c>
       <c r="N241" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O241" s="4" t="s">
         <v>678</v>
@@ -23242,7 +23499,7 @@
         <v>2272996</v>
       </c>
       <c r="N242" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O242" s="4" t="s">
         <v>678</v>
@@ -23316,7 +23573,7 @@
         <v>9578121</v>
       </c>
       <c r="N243" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O243" s="4" t="s">
         <v>678</v>
@@ -23390,7 +23647,7 @@
         <v>5971199</v>
       </c>
       <c r="N244" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O244" s="4" t="s">
         <v>678</v>
@@ -23464,7 +23721,7 @@
         <v>6884323</v>
       </c>
       <c r="N245" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O245" s="4" t="s">
         <v>678</v>
@@ -23538,7 +23795,7 @@
         <v>7773749</v>
       </c>
       <c r="N246" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O246" s="4" t="s">
         <v>678</v>
@@ -23612,7 +23869,7 @@
         <v>8624718</v>
       </c>
       <c r="N247" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O247" s="4" t="s">
         <v>678</v>
@@ -23686,7 +23943,7 @@
         <v>8449389</v>
       </c>
       <c r="N248" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O248" s="4" t="s">
         <v>678</v>
@@ -23760,7 +24017,7 @@
         <v>1165503</v>
       </c>
       <c r="N249" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O249" s="4" t="s">
         <v>678</v>
@@ -23834,7 +24091,7 @@
         <v>8465338</v>
       </c>
       <c r="N250" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O250" s="4" t="s">
         <v>678</v>
@@ -23908,7 +24165,7 @@
         <v>3295890</v>
       </c>
       <c r="N251" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O251" s="4" t="s">
         <v>678</v>
@@ -23982,7 +24239,7 @@
         <v>5719941</v>
       </c>
       <c r="N252" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O252" s="4" t="s">
         <v>678</v>
@@ -24056,7 +24313,7 @@
         <v>7083164</v>
       </c>
       <c r="N253" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O253" s="4" t="s">
         <v>722</v>
@@ -24130,7 +24387,7 @@
         <v>2078767</v>
       </c>
       <c r="N254" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O254" s="4" t="s">
         <v>722</v>
@@ -24204,7 +24461,7 @@
         <v>6053766</v>
       </c>
       <c r="N255" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O255" s="4" t="s">
         <v>722</v>
@@ -24278,7 +24535,7 @@
         <v>224517</v>
       </c>
       <c r="N256" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O256" s="4" t="s">
         <v>722</v>
@@ -24352,7 +24609,7 @@
         <v>7319315</v>
       </c>
       <c r="N257" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O257" s="4" t="s">
         <v>722</v>
@@ -24426,7 +24683,7 @@
         <v>9539567</v>
       </c>
       <c r="N258" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O258" s="4" t="s">
         <v>722</v>
@@ -24500,7 +24757,7 @@
         <v>6239166</v>
       </c>
       <c r="N259" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O259" s="4" t="s">
         <v>722</v>
@@ -24574,7 +24831,7 @@
         <v>3443259</v>
       </c>
       <c r="N260" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O260" s="4" t="s">
         <v>722</v>
@@ -24648,7 +24905,7 @@
         <v>4165448</v>
       </c>
       <c r="N261" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O261" s="4" t="s">
         <v>722</v>
@@ -24722,7 +24979,7 @@
         <v>3329491</v>
       </c>
       <c r="N262" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O262" s="4" t="s">
         <v>722</v>
@@ -24796,7 +25053,7 @@
         <v>6192529</v>
       </c>
       <c r="N263" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O263" s="4" t="s">
         <v>722</v>
@@ -24870,7 +25127,7 @@
         <v>4128470</v>
       </c>
       <c r="N264" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O264" s="4" t="s">
         <v>722</v>
@@ -24944,7 +25201,7 @@
         <v>4752952</v>
       </c>
       <c r="N265" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O265" s="4" t="s">
         <v>722</v>
@@ -25018,7 +25275,7 @@
         <v>3429854</v>
       </c>
       <c r="N266" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O266" s="4" t="s">
         <v>722</v>
@@ -25092,7 +25349,7 @@
         <v>6490247</v>
       </c>
       <c r="N267" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O267" s="4" t="s">
         <v>722</v>
@@ -25166,7 +25423,7 @@
         <v>3465301</v>
       </c>
       <c r="N268" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O268" s="4" t="s">
         <v>722</v>
@@ -25240,7 +25497,7 @@
         <v>1558906</v>
       </c>
       <c r="N269" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O269" s="4" t="s">
         <v>722</v>
@@ -25314,7 +25571,7 @@
         <v>9336731</v>
       </c>
       <c r="N270" s="4" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
       <c r="O270" s="4" t="s">
         <v>722</v>
@@ -26795,7 +27052,7 @@
       <c r="U290" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="V290" s="11" t="s">
+      <c r="V290" s="4" t="s">
         <v>1572</v>
       </c>
       <c r="W290" s="5">
@@ -26809,7 +27066,7 @@
       <c r="E302" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z290" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>

--- a/Calling_Trees/Calling Tree - Oct-25.xlsx
+++ b/Calling_Trees/Calling Tree - Oct-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xclusivetrading-my.sharepoint.com/personal/m_mahee_xclusivetradinginc_com/Documents/Desktop/Python/Calling Tree Dashboard/CallingTree_Dashboard/Calling_Trees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{FDC3ABA1-A593-48DD-B264-48D4A62A0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02F7F682-6664-4637-9BDD-8637156164E7}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{FDC3ABA1-A593-48DD-B264-48D4A62A0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CF9D773-9EBE-4AA3-87A3-BDBA00D5006B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$Z$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$X$290</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="1758">
   <si>
     <t>S.NO</t>
   </si>
@@ -5040,9 +5040,6 @@
   </si>
   <si>
     <t>+1 (619) 915-8517</t>
-  </si>
-  <si>
-    <t>SOUTH FL</t>
   </si>
   <si>
     <t>Charleston@xclusivetradinginc.com</t>
@@ -5586,6 +5583,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5910,23 +5911,23 @@
   </sheetPr>
   <dimension ref="A1:X302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="6" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="38" style="6" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.140625" style="6" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.140625" style="6" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" style="6" customWidth="1"/>
@@ -9419,7 +9420,7 @@
         <v>7015842</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>896</v>
@@ -9489,7 +9490,7 @@
         <v>5778386</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>896</v>
@@ -9559,7 +9560,7 @@
         <v>9812350</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>896</v>
@@ -9629,7 +9630,7 @@
         <v>4146119</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>896</v>
@@ -9699,7 +9700,7 @@
         <v>5971210</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>896</v>
@@ -9769,7 +9770,7 @@
         <v>1606737</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>896</v>
@@ -9839,7 +9840,7 @@
         <v>4655609</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>896</v>
@@ -17085,7 +17086,7 @@
         <v>1595</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="Q154" s="4" t="s">
         <v>1458</v>
@@ -17100,10 +17101,10 @@
         <v>694</v>
       </c>
       <c r="U154" s="4" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="V154" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="W154" s="5">
         <v>45933</v>
@@ -17157,7 +17158,7 @@
         <v>1595</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="Q155" s="4" t="s">
         <v>1458</v>
@@ -17172,10 +17173,10 @@
         <v>693</v>
       </c>
       <c r="U155" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="V155" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W155" s="5">
         <v>45933</v>
@@ -17229,7 +17230,7 @@
         <v>1595</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Q156" s="4" t="s">
         <v>1458</v>
@@ -17244,10 +17245,10 @@
         <v>705</v>
       </c>
       <c r="U156" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="V156" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="W156" s="5">
         <v>45933</v>
@@ -17301,7 +17302,7 @@
         <v>1595</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Q157" s="4" t="s">
         <v>1458</v>
@@ -17316,10 +17317,10 @@
         <v>703</v>
       </c>
       <c r="U157" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="V157" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="W157" s="5">
         <v>45933</v>
@@ -17373,7 +17374,7 @@
         <v>1595</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="Q158" s="4" t="s">
         <v>1458</v>
@@ -17388,10 +17389,10 @@
         <v>695</v>
       </c>
       <c r="U158" s="4" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="V158" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="W158" s="5">
         <v>45933</v>
@@ -17445,7 +17446,7 @@
         <v>1595</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="Q159" s="4" t="s">
         <v>1458</v>
@@ -17460,10 +17461,10 @@
         <v>704</v>
       </c>
       <c r="U159" s="4" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="V159" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="W159" s="5">
         <v>45933</v>
@@ -17517,7 +17518,7 @@
         <v>1595</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="Q160" s="4" t="s">
         <v>1458</v>
@@ -17532,10 +17533,10 @@
         <v>720</v>
       </c>
       <c r="U160" s="4" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="V160" s="4" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="W160" s="5">
         <v>45933</v>
@@ -17589,7 +17590,7 @@
         <v>1595</v>
       </c>
       <c r="P161" s="4" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Q161" s="4" t="s">
         <v>1458</v>
@@ -17604,10 +17605,10 @@
         <v>697</v>
       </c>
       <c r="U161" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="V161" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="W161" s="5">
         <v>45933</v>
@@ -17661,7 +17662,7 @@
         <v>1595</v>
       </c>
       <c r="P162" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="Q162" s="4" t="s">
         <v>1458</v>
@@ -17676,10 +17677,10 @@
         <v>709</v>
       </c>
       <c r="U162" s="4" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="V162" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="W162" s="5">
         <v>45933</v>
@@ -17733,7 +17734,7 @@
         <v>1595</v>
       </c>
       <c r="P163" s="4" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="Q163" s="4" t="s">
         <v>1458</v>
@@ -17748,10 +17749,10 @@
         <v>714</v>
       </c>
       <c r="U163" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="V163" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="W163" s="5">
         <v>45933</v>
@@ -17805,7 +17806,7 @@
         <v>1595</v>
       </c>
       <c r="P164" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="Q164" s="4" t="s">
         <v>1458</v>
@@ -17820,10 +17821,10 @@
         <v>707</v>
       </c>
       <c r="U164" s="4" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="V164" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="W164" s="5">
         <v>45933</v>
@@ -17877,7 +17878,7 @@
         <v>1595</v>
       </c>
       <c r="P165" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="Q165" s="4" t="s">
         <v>1458</v>
@@ -17892,10 +17893,10 @@
         <v>710</v>
       </c>
       <c r="U165" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="V165" s="4" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="W165" s="5">
         <v>45933</v>
@@ -17949,7 +17950,7 @@
         <v>1595</v>
       </c>
       <c r="P166" s="4" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="Q166" s="4" t="s">
         <v>1458</v>
@@ -17964,10 +17965,10 @@
         <v>701</v>
       </c>
       <c r="U166" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="V166" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="W166" s="5">
         <v>45933</v>
@@ -18021,7 +18022,7 @@
         <v>1595</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="Q167" s="4" t="s">
         <v>1458</v>
@@ -18036,10 +18037,10 @@
         <v>715</v>
       </c>
       <c r="U167" s="4" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="V167" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="W167" s="5">
         <v>45933</v>
@@ -18093,7 +18094,7 @@
         <v>1595</v>
       </c>
       <c r="P168" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="Q168" s="4" t="s">
         <v>1458</v>
@@ -18108,10 +18109,10 @@
         <v>717</v>
       </c>
       <c r="U168" s="4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="V168" s="4" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="W168" s="5">
         <v>45933</v>
@@ -18165,7 +18166,7 @@
         <v>1595</v>
       </c>
       <c r="P169" s="4" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="Q169" s="4" t="s">
         <v>1458</v>
@@ -18180,10 +18181,10 @@
         <v>699</v>
       </c>
       <c r="U169" s="4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="V169" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="W169" s="5">
         <v>45933</v>
@@ -18237,7 +18238,7 @@
         <v>1595</v>
       </c>
       <c r="P170" s="4" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="Q170" s="4" t="s">
         <v>1458</v>
@@ -18252,10 +18253,10 @@
         <v>696</v>
       </c>
       <c r="U170" s="4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="V170" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="W170" s="5">
         <v>45933</v>
@@ -18309,7 +18310,7 @@
         <v>1595</v>
       </c>
       <c r="P171" s="4" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="Q171" s="4" t="s">
         <v>1458</v>
@@ -18324,10 +18325,10 @@
         <v>690</v>
       </c>
       <c r="U171" s="4" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="V171" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="W171" s="5">
         <v>45933</v>
@@ -18381,7 +18382,7 @@
         <v>1595</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Q172" s="4" t="s">
         <v>1458</v>
@@ -18396,10 +18397,10 @@
         <v>712</v>
       </c>
       <c r="U172" s="4" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="V172" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="W172" s="5">
         <v>45933</v>
@@ -18453,7 +18454,7 @@
         <v>1595</v>
       </c>
       <c r="P173" s="4" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="Q173" s="4" t="s">
         <v>1458</v>
@@ -18468,10 +18469,10 @@
         <v>719</v>
       </c>
       <c r="U173" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="V173" s="4" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="W173" s="5">
         <v>45933</v>
@@ -18525,7 +18526,7 @@
         <v>1595</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="Q174" s="4" t="s">
         <v>1458</v>
@@ -18540,10 +18541,10 @@
         <v>718</v>
       </c>
       <c r="U174" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="V174" s="4" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="W174" s="5" t="s">
         <v>1566</v>
@@ -18597,7 +18598,7 @@
         <v>1595</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="Q175" s="4" t="s">
         <v>1458</v>
@@ -18612,10 +18613,10 @@
         <v>708</v>
       </c>
       <c r="U175" s="4" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="V175" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="W175" s="5">
         <v>45933</v>
@@ -18669,7 +18670,7 @@
         <v>1595</v>
       </c>
       <c r="P176" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="Q176" s="4" t="s">
         <v>1458</v>
@@ -18684,10 +18685,10 @@
         <v>702</v>
       </c>
       <c r="U176" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="V176" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W176" s="5">
         <v>45933</v>
@@ -18741,7 +18742,7 @@
         <v>1595</v>
       </c>
       <c r="P177" s="4" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q177" s="4" t="s">
         <v>1458</v>
@@ -18756,10 +18757,10 @@
         <v>711</v>
       </c>
       <c r="U177" s="4" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="V177" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="W177" s="5">
         <v>45933</v>
@@ -18813,7 +18814,7 @@
         <v>1595</v>
       </c>
       <c r="P178" s="4" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="Q178" s="4" t="s">
         <v>1458</v>
@@ -18828,10 +18829,10 @@
         <v>691</v>
       </c>
       <c r="U178" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="V178" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="W178" s="5">
         <v>45933</v>
@@ -18885,7 +18886,7 @@
         <v>1595</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="Q179" s="4" t="s">
         <v>1458</v>
@@ -18900,10 +18901,10 @@
         <v>716</v>
       </c>
       <c r="U179" s="4" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="V179" s="4" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="W179" s="5">
         <v>45933</v>
@@ -18957,7 +18958,7 @@
         <v>1595</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Q180" s="4" t="s">
         <v>1458</v>
@@ -18972,10 +18973,10 @@
         <v>706</v>
       </c>
       <c r="U180" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="V180" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="W180" s="5">
         <v>45933</v>
@@ -19029,7 +19030,7 @@
         <v>1595</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="Q181" s="4" t="s">
         <v>1458</v>
@@ -19044,10 +19045,10 @@
         <v>692</v>
       </c>
       <c r="U181" s="4" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="V181" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W181" s="5">
         <v>45933</v>
@@ -19101,7 +19102,7 @@
         <v>1595</v>
       </c>
       <c r="P182" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="Q182" s="4" t="s">
         <v>1458</v>
@@ -19116,10 +19117,10 @@
         <v>713</v>
       </c>
       <c r="U182" s="4" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="V182" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="W182" s="5">
         <v>45933</v>
@@ -19173,7 +19174,7 @@
         <v>1595</v>
       </c>
       <c r="P183" s="4" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="Q183" s="4" t="s">
         <v>1458</v>
@@ -19188,10 +19189,10 @@
         <v>698</v>
       </c>
       <c r="U183" s="4" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="V183" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="W183" s="5">
         <v>45933</v>
@@ -22463,7 +22464,7 @@
         <v>7608529</v>
       </c>
       <c r="N228" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O228" s="4" t="s">
         <v>678</v>
@@ -22537,7 +22538,7 @@
         <v>7002848</v>
       </c>
       <c r="N229" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O229" s="4" t="s">
         <v>678</v>
@@ -22611,7 +22612,7 @@
         <v>4425020</v>
       </c>
       <c r="N230" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O230" s="4" t="s">
         <v>678</v>
@@ -22685,7 +22686,7 @@
         <v>1943549</v>
       </c>
       <c r="N231" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O231" s="4" t="s">
         <v>678</v>
@@ -22759,7 +22760,7 @@
         <v>8940151</v>
       </c>
       <c r="N232" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O232" s="4" t="s">
         <v>678</v>
@@ -22833,7 +22834,7 @@
         <v>1826134</v>
       </c>
       <c r="N233" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O233" s="4" t="s">
         <v>678</v>
@@ -22907,7 +22908,7 @@
         <v>6945803</v>
       </c>
       <c r="N234" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O234" s="4" t="s">
         <v>678</v>
@@ -22981,7 +22982,7 @@
         <v>414724</v>
       </c>
       <c r="N235" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O235" s="4" t="s">
         <v>678</v>
@@ -23055,7 +23056,7 @@
         <v>451353</v>
       </c>
       <c r="N236" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O236" s="4" t="s">
         <v>678</v>
@@ -23096,7 +23097,7 @@
         <v>19</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>20</v>
+        <v>860</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>1543</v>
@@ -23129,10 +23130,10 @@
         <v>2357845</v>
       </c>
       <c r="N237" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O237" s="4" t="s">
-        <v>678</v>
+        <v>722</v>
       </c>
       <c r="P237" s="4" t="s">
         <v>695</v>
@@ -23170,7 +23171,7 @@
         <v>19</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>20</v>
+        <v>860</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>1543</v>
@@ -23203,10 +23204,10 @@
         <v>1600153</v>
       </c>
       <c r="N238" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O238" s="4" t="s">
-        <v>678</v>
+        <v>722</v>
       </c>
       <c r="P238" s="4" t="s">
         <v>698</v>
@@ -23244,7 +23245,7 @@
         <v>19</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>20</v>
+        <v>860</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>1543</v>
@@ -23277,10 +23278,10 @@
         <v>2304480</v>
       </c>
       <c r="N239" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O239" s="4" t="s">
-        <v>678</v>
+        <v>722</v>
       </c>
       <c r="P239" s="4" t="s">
         <v>701</v>
@@ -23351,7 +23352,7 @@
         <v>116489</v>
       </c>
       <c r="N240" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O240" s="4" t="s">
         <v>678</v>
@@ -23425,7 +23426,7 @@
         <v>2424596</v>
       </c>
       <c r="N241" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O241" s="4" t="s">
         <v>678</v>
@@ -23499,7 +23500,7 @@
         <v>2272996</v>
       </c>
       <c r="N242" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O242" s="4" t="s">
         <v>678</v>
@@ -23573,7 +23574,7 @@
         <v>9578121</v>
       </c>
       <c r="N243" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O243" s="4" t="s">
         <v>678</v>
@@ -23647,7 +23648,7 @@
         <v>5971199</v>
       </c>
       <c r="N244" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O244" s="4" t="s">
         <v>678</v>
@@ -23721,10 +23722,10 @@
         <v>6884323</v>
       </c>
       <c r="N245" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O245" s="4" t="s">
-        <v>678</v>
+        <v>722</v>
       </c>
       <c r="P245" s="4" t="s">
         <v>1462</v>
@@ -23795,10 +23796,10 @@
         <v>7773749</v>
       </c>
       <c r="N246" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O246" s="4" t="s">
-        <v>678</v>
+        <v>722</v>
       </c>
       <c r="P246" s="4" t="s">
         <v>1402</v>
@@ -23869,10 +23870,10 @@
         <v>8624718</v>
       </c>
       <c r="N247" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O247" s="4" t="s">
-        <v>678</v>
+        <v>722</v>
       </c>
       <c r="P247" s="4" t="s">
         <v>1463</v>
@@ -23910,7 +23911,7 @@
         <v>19</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>860</v>
+        <v>20</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>1545</v>
@@ -23943,7 +23944,7 @@
         <v>8449389</v>
       </c>
       <c r="N248" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O248" s="4" t="s">
         <v>678</v>
@@ -23984,7 +23985,7 @@
         <v>19</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>860</v>
+        <v>20</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>1545</v>
@@ -24017,7 +24018,7 @@
         <v>1165503</v>
       </c>
       <c r="N249" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O249" s="4" t="s">
         <v>678</v>
@@ -24058,7 +24059,7 @@
         <v>19</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>860</v>
+        <v>20</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>1545</v>
@@ -24091,7 +24092,7 @@
         <v>8465338</v>
       </c>
       <c r="N250" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O250" s="4" t="s">
         <v>678</v>
@@ -24132,7 +24133,7 @@
         <v>19</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>860</v>
+        <v>20</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>1545</v>
@@ -24165,7 +24166,7 @@
         <v>3295890</v>
       </c>
       <c r="N251" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O251" s="4" t="s">
         <v>678</v>
@@ -24206,7 +24207,7 @@
         <v>19</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>860</v>
+        <v>20</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>1545</v>
@@ -24239,7 +24240,7 @@
         <v>5719941</v>
       </c>
       <c r="N252" s="4" t="s">
-        <v>1667</v>
+        <v>678</v>
       </c>
       <c r="O252" s="4" t="s">
         <v>678</v>
@@ -24313,7 +24314,7 @@
         <v>7083164</v>
       </c>
       <c r="N253" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O253" s="4" t="s">
         <v>722</v>
@@ -24387,7 +24388,7 @@
         <v>2078767</v>
       </c>
       <c r="N254" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O254" s="4" t="s">
         <v>722</v>
@@ -24461,7 +24462,7 @@
         <v>6053766</v>
       </c>
       <c r="N255" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O255" s="4" t="s">
         <v>722</v>
@@ -24535,7 +24536,7 @@
         <v>224517</v>
       </c>
       <c r="N256" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O256" s="4" t="s">
         <v>722</v>
@@ -24609,7 +24610,7 @@
         <v>7319315</v>
       </c>
       <c r="N257" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O257" s="4" t="s">
         <v>722</v>
@@ -24683,7 +24684,7 @@
         <v>9539567</v>
       </c>
       <c r="N258" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O258" s="4" t="s">
         <v>722</v>
@@ -24757,7 +24758,7 @@
         <v>6239166</v>
       </c>
       <c r="N259" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O259" s="4" t="s">
         <v>722</v>
@@ -24831,7 +24832,7 @@
         <v>3443259</v>
       </c>
       <c r="N260" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O260" s="4" t="s">
         <v>722</v>
@@ -24905,7 +24906,7 @@
         <v>4165448</v>
       </c>
       <c r="N261" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O261" s="4" t="s">
         <v>722</v>
@@ -24979,7 +24980,7 @@
         <v>3329491</v>
       </c>
       <c r="N262" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O262" s="4" t="s">
         <v>722</v>
@@ -25053,7 +25054,7 @@
         <v>6192529</v>
       </c>
       <c r="N263" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O263" s="4" t="s">
         <v>722</v>
@@ -25127,7 +25128,7 @@
         <v>4128470</v>
       </c>
       <c r="N264" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O264" s="4" t="s">
         <v>722</v>
@@ -25201,7 +25202,7 @@
         <v>4752952</v>
       </c>
       <c r="N265" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O265" s="4" t="s">
         <v>722</v>
@@ -25275,7 +25276,7 @@
         <v>3429854</v>
       </c>
       <c r="N266" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O266" s="4" t="s">
         <v>722</v>
@@ -25349,7 +25350,7 @@
         <v>6490247</v>
       </c>
       <c r="N267" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O267" s="4" t="s">
         <v>722</v>
@@ -25423,7 +25424,7 @@
         <v>3465301</v>
       </c>
       <c r="N268" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O268" s="4" t="s">
         <v>722</v>
@@ -25497,7 +25498,7 @@
         <v>1558906</v>
       </c>
       <c r="N269" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O269" s="4" t="s">
         <v>722</v>
@@ -25571,7 +25572,7 @@
         <v>9336731</v>
       </c>
       <c r="N270" s="4" t="s">
-        <v>1667</v>
+        <v>722</v>
       </c>
       <c r="O270" s="4" t="s">
         <v>722</v>
@@ -27066,7 +27067,7 @@
       <c r="E302" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z290" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X290" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>

--- a/Calling_Trees/Calling Tree - Oct-25.xlsx
+++ b/Calling_Trees/Calling Tree - Oct-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xclusivetrading-my.sharepoint.com/personal/m_mahee_xclusivetradinginc_com/Documents/Desktop/Python/Calling Tree Dashboard/CallingTree_Dashboard/Calling_Trees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{FDC3ABA1-A593-48DD-B264-48D4A62A0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CF9D773-9EBE-4AA3-87A3-BDBA00D5006B}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{FDC3ABA1-A593-48DD-B264-48D4A62A0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77C3CD37-2B35-419E-8451-3A5BCD8E3B0D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5906,14 +5906,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:X302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:S247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5925,17 +5925,17 @@
     <col min="5" max="5" width="38" style="6" customWidth="1"/>
     <col min="6" max="6" width="32.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="6" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="6" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="32.42578125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="29.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="29.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="6" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="68" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -6019,7 +6019,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="151" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="152" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="153" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="154" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="155" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="156" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="157" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="158" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="159" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="160" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="161" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="162" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="163" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="164" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="165" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="166" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="167" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="168" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="169" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="170" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="171" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="172" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="173" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="174" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="175" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="176" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="177" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="178" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="179" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -18913,7 +18913,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="180" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="181" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="182" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="183" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -19275,7 +19275,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -19423,7 +19423,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -19719,7 +19719,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -20015,7 +20015,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -20599,7 +20599,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -21399,7 +21399,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -21473,7 +21473,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -21547,7 +21547,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -21769,7 +21769,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -22063,7 +22063,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -22497,7 +22497,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -22571,7 +22571,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>231</v>
       </c>
@@ -22793,7 +22793,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -22867,7 +22867,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>233</v>
       </c>
@@ -22941,7 +22941,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -23015,7 +23015,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>235</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -23385,7 +23385,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>241</v>
       </c>
@@ -23533,7 +23533,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -23607,7 +23607,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -23977,7 +23977,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>248</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>249</v>
       </c>
@@ -24125,7 +24125,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>250</v>
       </c>
@@ -24199,7 +24199,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>251</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>270</v>
       </c>
@@ -25677,7 +25677,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>271</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>272</v>
       </c>
@@ -25821,7 +25821,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>273</v>
       </c>
@@ -25893,7 +25893,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>274</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>275</v>
       </c>
@@ -26037,7 +26037,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>276</v>
       </c>
@@ -26109,7 +26109,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>277</v>
       </c>
@@ -26181,7 +26181,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>278</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>279</v>
       </c>
@@ -26325,7 +26325,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>280</v>
       </c>
@@ -26397,7 +26397,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>281</v>
       </c>
@@ -26471,7 +26471,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>282</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>283</v>
       </c>
@@ -26619,7 +26619,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>284</v>
       </c>
@@ -26693,7 +26693,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>285</v>
       </c>
@@ -26767,7 +26767,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>286</v>
       </c>
@@ -26841,7 +26841,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>287</v>
       </c>
@@ -26915,7 +26915,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>288</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>289</v>
       </c>
@@ -27067,7 +27067,13 @@
       <c r="E302" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X290" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X290" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="SOUTH FL 2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>

--- a/Calling_Trees/Calling Tree - Oct-25.xlsx
+++ b/Calling_Trees/Calling Tree - Oct-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xclusivetrading-my.sharepoint.com/personal/m_mahee_xclusivetradinginc_com/Documents/Desktop/Python/Calling Tree Dashboard/CallingTree_Dashboard/Calling_Trees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{FDC3ABA1-A593-48DD-B264-48D4A62A0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77C3CD37-2B35-419E-8451-3A5BCD8E3B0D}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{FDC3ABA1-A593-48DD-B264-48D4A62A0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E50AF399-C918-481E-B497-8F67E4A23BCD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5906,14 +5906,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:X302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:S247"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5925,17 +5925,17 @@
     <col min="5" max="5" width="38" style="6" customWidth="1"/>
     <col min="6" max="6" width="32.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" style="6" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="6" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="6" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="16.140625" style="6" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="6" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="6" customWidth="1"/>
     <col min="16" max="16" width="32.42578125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="29.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="29.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="6" customWidth="1"/>
     <col min="19" max="19" width="68" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -6019,7 +6019,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="151" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="152" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="153" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="154" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="155" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="156" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="157" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="158" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="159" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="160" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="161" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="162" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="163" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="164" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="165" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="166" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="167" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="168" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="169" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="170" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="171" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="172" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="173" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="174" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="175" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="176" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="177" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="178" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="179" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -18913,7 +18913,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="180" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="181" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="182" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="183" spans="1:24" s="9" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -19275,7 +19275,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -19423,7 +19423,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -19719,7 +19719,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -20015,7 +20015,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -20599,7 +20599,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -21399,7 +21399,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -21473,7 +21473,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -21547,7 +21547,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -21769,7 +21769,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -22063,7 +22063,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -22497,7 +22497,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -22571,7 +22571,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>231</v>
       </c>
@@ -22793,7 +22793,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -22867,7 +22867,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>233</v>
       </c>
@@ -22941,7 +22941,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -23015,7 +23015,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>235</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -23385,7 +23385,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>241</v>
       </c>
@@ -23533,7 +23533,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -23607,7 +23607,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -23977,7 +23977,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>248</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>249</v>
       </c>
@@ -24125,7 +24125,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>250</v>
       </c>
@@ -24199,7 +24199,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>251</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>270</v>
       </c>
@@ -25677,7 +25677,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>271</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>272</v>
       </c>
@@ -25821,7 +25821,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>273</v>
       </c>
@@ -25893,7 +25893,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>274</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>275</v>
       </c>
@@ -26037,7 +26037,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>276</v>
       </c>
@@ -26109,7 +26109,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>277</v>
       </c>
@@ -26181,7 +26181,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>278</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>279</v>
       </c>
@@ -26325,7 +26325,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>280</v>
       </c>
@@ -26397,7 +26397,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>281</v>
       </c>
@@ -26471,7 +26471,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>282</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>283</v>
       </c>
@@ -26619,7 +26619,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>284</v>
       </c>
@@ -26693,7 +26693,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>285</v>
       </c>
@@ -26767,7 +26767,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>286</v>
       </c>
@@ -26841,7 +26841,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>287</v>
       </c>
@@ -26915,7 +26915,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>288</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>289</v>
       </c>
@@ -27067,13 +27067,6 @@
       <c r="E302" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X290" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="SOUTH FL 2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
